--- a/public/BD_preguntas1.xlsx
+++ b/public/BD_preguntas1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\AAA-Vinculacion\AppTDAH\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D5BFDD-5412-435A-9C19-CD4EB9862003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B560896-371E-48DE-B44F-EAAB627905E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="557">
   <si>
     <t>Enunciado</t>
   </si>
@@ -1753,6 +1753,12 @@
   </si>
   <si>
     <t>asoto@ups.edu.ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estudiante@est.ups.edu.ec </t>
+  </si>
+  <si>
+    <t>Estudiante Prueba alumnos</t>
   </si>
 </sst>
 </file>
@@ -1835,8 +1841,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2129,7 +2137,6 @@
     <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="30.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2157,7 +2164,7 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" t="s">
         <v>476</v>
       </c>
     </row>
@@ -2186,7 +2193,7 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
@@ -2215,7 +2222,7 @@
       <c r="H3">
         <v>-1</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3">
         <v>4</v>
       </c>
     </row>
@@ -2244,7 +2251,7 @@
       <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4">
         <v>4</v>
       </c>
     </row>
@@ -2273,7 +2280,7 @@
       <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
@@ -2302,7 +2309,7 @@
       <c r="H6">
         <v>-1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <v>4</v>
       </c>
     </row>
@@ -2331,7 +2338,7 @@
       <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7">
         <v>9</v>
       </c>
     </row>
@@ -2360,7 +2367,7 @@
       <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8">
         <v>6</v>
       </c>
     </row>
@@ -2389,7 +2396,7 @@
       <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9">
         <v>4</v>
       </c>
     </row>
@@ -2418,7 +2425,7 @@
       <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
@@ -2447,7 +2454,7 @@
       <c r="H11">
         <v>-1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11">
         <v>6</v>
       </c>
     </row>
@@ -2476,7 +2483,7 @@
       <c r="H12">
         <v>-1</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12">
         <v>6</v>
       </c>
     </row>
@@ -2505,7 +2512,7 @@
       <c r="H13">
         <v>-1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13">
         <v>4</v>
       </c>
     </row>
@@ -2534,7 +2541,7 @@
       <c r="H14">
         <v>-1</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14">
         <v>6</v>
       </c>
     </row>
@@ -2563,7 +2570,7 @@
       <c r="H15">
         <v>-1</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15">
         <v>6</v>
       </c>
     </row>
@@ -2592,7 +2599,7 @@
       <c r="H16">
         <v>-1</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16">
         <v>6</v>
       </c>
     </row>
@@ -2621,7 +2628,7 @@
       <c r="H17">
         <v>-1</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17">
         <v>6</v>
       </c>
     </row>
@@ -2650,7 +2657,7 @@
       <c r="H18">
         <v>-1</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18">
         <v>6</v>
       </c>
     </row>
@@ -2679,7 +2686,7 @@
       <c r="H19">
         <v>-1</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19">
         <v>3</v>
       </c>
     </row>
@@ -2708,7 +2715,7 @@
       <c r="H20">
         <v>-1</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20">
         <v>3</v>
       </c>
     </row>
@@ -2737,7 +2744,7 @@
       <c r="H21">
         <v>-1</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21">
         <v>2</v>
       </c>
     </row>
@@ -2766,7 +2773,7 @@
       <c r="H22">
         <v>-1</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22">
         <v>8</v>
       </c>
     </row>
@@ -2795,7 +2802,7 @@
       <c r="H23">
         <v>-1</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23">
         <v>1</v>
       </c>
     </row>
@@ -2824,7 +2831,7 @@
       <c r="H24">
         <v>-1</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24">
         <v>4</v>
       </c>
     </row>
@@ -2853,7 +2860,7 @@
       <c r="H25">
         <v>-1</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25">
         <v>2</v>
       </c>
     </row>
@@ -2882,7 +2889,7 @@
       <c r="H26">
         <v>-1</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26">
         <v>3</v>
       </c>
     </row>
@@ -2911,7 +2918,7 @@
       <c r="H27">
         <v>-1</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27">
         <v>1</v>
       </c>
     </row>
@@ -2940,7 +2947,7 @@
       <c r="H28">
         <v>-1</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28">
         <v>5</v>
       </c>
     </row>
@@ -2969,7 +2976,7 @@
       <c r="H29">
         <v>-1</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29">
         <v>1</v>
       </c>
     </row>
@@ -2998,7 +3005,7 @@
       <c r="H30">
         <v>-1</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30">
         <v>4</v>
       </c>
     </row>
@@ -3027,7 +3034,7 @@
       <c r="H31">
         <v>-1</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31">
         <v>2</v>
       </c>
     </row>
@@ -3056,7 +3063,7 @@
       <c r="H32">
         <v>-1</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32">
         <v>3</v>
       </c>
     </row>
@@ -3085,7 +3092,7 @@
       <c r="H33">
         <v>-1</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33">
         <v>1</v>
       </c>
     </row>
@@ -3114,7 +3121,7 @@
       <c r="H34">
         <v>-1</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34">
         <v>4</v>
       </c>
     </row>
@@ -3143,7 +3150,7 @@
       <c r="H35">
         <v>-1</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35">
         <v>1</v>
       </c>
     </row>
@@ -3172,7 +3179,7 @@
       <c r="H36">
         <v>-1</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36">
         <v>1</v>
       </c>
     </row>
@@ -3201,7 +3208,7 @@
       <c r="H37">
         <v>-1</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37">
         <v>1</v>
       </c>
     </row>
@@ -3230,7 +3237,7 @@
       <c r="H38">
         <v>-1</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38">
         <v>2</v>
       </c>
     </row>
@@ -3259,7 +3266,7 @@
       <c r="H39">
         <v>-1</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39">
         <v>6</v>
       </c>
     </row>
@@ -3288,7 +3295,7 @@
       <c r="H40">
         <v>-1</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40">
         <v>3</v>
       </c>
     </row>
@@ -3317,7 +3324,7 @@
       <c r="H41">
         <v>-1</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41">
         <v>1</v>
       </c>
     </row>
@@ -3346,7 +3353,7 @@
       <c r="H42">
         <v>-1</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42">
         <v>3</v>
       </c>
     </row>
@@ -3375,7 +3382,7 @@
       <c r="H43">
         <v>-1</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43">
         <v>4</v>
       </c>
     </row>
@@ -3404,7 +3411,7 @@
       <c r="H44">
         <v>-1</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44">
         <v>1</v>
       </c>
     </row>
@@ -3433,7 +3440,7 @@
       <c r="H45">
         <v>-1</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45">
         <v>1</v>
       </c>
     </row>
@@ -3462,7 +3469,7 @@
       <c r="H46">
         <v>-1</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46">
         <v>1</v>
       </c>
     </row>
@@ -3491,7 +3498,7 @@
       <c r="H47">
         <v>-1</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47">
         <v>9</v>
       </c>
     </row>
@@ -3520,7 +3527,7 @@
       <c r="H48">
         <v>-1</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48">
         <v>9</v>
       </c>
     </row>
@@ -3549,7 +3556,7 @@
       <c r="H49">
         <v>-1</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49">
         <v>5</v>
       </c>
     </row>
@@ -3578,7 +3585,7 @@
       <c r="H50">
         <v>-1</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50">
         <v>5</v>
       </c>
     </row>
@@ -3607,7 +3614,7 @@
       <c r="H51">
         <v>-1</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51">
         <v>7</v>
       </c>
     </row>
@@ -3636,7 +3643,7 @@
       <c r="H52">
         <v>-1</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52">
         <v>7</v>
       </c>
     </row>
@@ -3665,7 +3672,7 @@
       <c r="H53">
         <v>-1</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53">
         <v>8</v>
       </c>
     </row>
@@ -3694,7 +3701,7 @@
       <c r="H54">
         <v>-1</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54">
         <v>8</v>
       </c>
     </row>
@@ -3723,7 +3730,7 @@
       <c r="H55">
         <v>-1</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55">
         <v>5</v>
       </c>
     </row>
@@ -3752,7 +3759,7 @@
       <c r="H56">
         <v>-1</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56">
         <v>6</v>
       </c>
     </row>
@@ -3781,7 +3788,7 @@
       <c r="H57">
         <v>-1</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57">
         <v>5</v>
       </c>
     </row>
@@ -3810,7 +3817,7 @@
       <c r="H58">
         <v>-1</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58">
         <v>5</v>
       </c>
     </row>
@@ -3839,7 +3846,7 @@
       <c r="H59">
         <v>-1</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59">
         <v>9</v>
       </c>
     </row>
@@ -3868,7 +3875,7 @@
       <c r="H60">
         <v>-1</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60">
         <v>5</v>
       </c>
     </row>
@@ -3897,7 +3904,7 @@
       <c r="H61">
         <v>-1</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61">
         <v>5</v>
       </c>
     </row>
@@ -3926,7 +3933,7 @@
       <c r="H62">
         <v>-1</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62">
         <v>5</v>
       </c>
     </row>
@@ -3955,7 +3962,7 @@
       <c r="H63">
         <v>-1</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63">
         <v>5</v>
       </c>
     </row>
@@ -3984,7 +3991,7 @@
       <c r="H64">
         <v>-1</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64">
         <v>5</v>
       </c>
     </row>
@@ -4013,7 +4020,7 @@
       <c r="H65">
         <v>-1</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65">
         <v>5</v>
       </c>
     </row>
@@ -4042,7 +4049,7 @@
       <c r="H66">
         <v>-1</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66">
         <v>9</v>
       </c>
     </row>
@@ -4071,7 +4078,7 @@
       <c r="H67">
         <v>-1</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67">
         <v>4</v>
       </c>
     </row>
@@ -4100,7 +4107,7 @@
       <c r="H68">
         <v>-1</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68">
         <v>5</v>
       </c>
     </row>
@@ -4129,7 +4136,7 @@
       <c r="H69">
         <v>-1</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69">
         <v>4</v>
       </c>
     </row>
@@ -4158,7 +4165,7 @@
       <c r="H70">
         <v>-1</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70">
         <v>4</v>
       </c>
     </row>
@@ -4187,7 +4194,7 @@
       <c r="H71">
         <v>-1</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71">
         <v>5</v>
       </c>
     </row>
@@ -4216,7 +4223,7 @@
       <c r="H72">
         <v>-1</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72">
         <v>4</v>
       </c>
     </row>
@@ -4245,7 +4252,7 @@
       <c r="H73">
         <v>-1</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73">
         <v>5</v>
       </c>
     </row>
@@ -4274,7 +4281,7 @@
       <c r="H74">
         <v>-1</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74">
         <v>4</v>
       </c>
     </row>
@@ -4303,7 +4310,7 @@
       <c r="H75">
         <v>-1</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75">
         <v>1</v>
       </c>
     </row>
@@ -4332,7 +4339,7 @@
       <c r="H76">
         <v>-1</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76">
         <v>1</v>
       </c>
     </row>
@@ -4361,7 +4368,7 @@
       <c r="H77">
         <v>-1</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77">
         <v>1</v>
       </c>
     </row>
@@ -4390,7 +4397,7 @@
       <c r="H78">
         <v>-1</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78">
         <v>1</v>
       </c>
     </row>
@@ -4419,7 +4426,7 @@
       <c r="H79">
         <v>-1</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79">
         <v>1</v>
       </c>
     </row>
@@ -4448,7 +4455,7 @@
       <c r="H80">
         <v>-1</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80">
         <v>4</v>
       </c>
     </row>
@@ -4477,7 +4484,7 @@
       <c r="H81">
         <v>-1</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81">
         <v>1</v>
       </c>
     </row>
@@ -4506,7 +4513,7 @@
       <c r="H82">
         <v>-1</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82">
         <v>1</v>
       </c>
     </row>
@@ -4535,7 +4542,7 @@
       <c r="H83">
         <v>-1</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83">
         <v>1</v>
       </c>
     </row>
@@ -4564,7 +4571,7 @@
       <c r="H84">
         <v>-1</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84">
         <v>4</v>
       </c>
     </row>
@@ -4593,7 +4600,7 @@
       <c r="H85">
         <v>-1</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85">
         <v>1</v>
       </c>
     </row>
@@ -4622,7 +4629,7 @@
       <c r="H86">
         <v>-1</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86">
         <v>1</v>
       </c>
     </row>
@@ -4651,7 +4658,7 @@
       <c r="H87">
         <v>-1</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87">
         <v>3</v>
       </c>
     </row>
@@ -4680,7 +4687,7 @@
       <c r="H88">
         <v>-1</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88">
         <v>2</v>
       </c>
     </row>
@@ -4709,7 +4716,7 @@
       <c r="H89">
         <v>-1</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89">
         <v>2</v>
       </c>
     </row>
@@ -4738,7 +4745,7 @@
       <c r="H90">
         <v>-1</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90">
         <v>3</v>
       </c>
     </row>
@@ -4767,7 +4774,7 @@
       <c r="H91">
         <v>-1</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91">
         <v>2</v>
       </c>
     </row>
@@ -4796,7 +4803,7 @@
       <c r="H92">
         <v>-1</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92">
         <v>1</v>
       </c>
     </row>
@@ -4825,7 +4832,7 @@
       <c r="H93">
         <v>-1</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93">
         <v>2</v>
       </c>
     </row>
@@ -4854,7 +4861,7 @@
       <c r="H94">
         <v>-1</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94">
         <v>2</v>
       </c>
     </row>
@@ -4883,7 +4890,7 @@
       <c r="H95">
         <v>-1</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95">
         <v>2</v>
       </c>
     </row>
@@ -4912,7 +4919,7 @@
       <c r="H96">
         <v>-1</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96">
         <v>2</v>
       </c>
     </row>
@@ -4941,7 +4948,7 @@
       <c r="H97">
         <v>-1</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97">
         <v>2</v>
       </c>
     </row>
@@ -4970,7 +4977,7 @@
       <c r="H98">
         <v>-1</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98">
         <v>2</v>
       </c>
     </row>
@@ -4999,7 +5006,7 @@
       <c r="H99">
         <v>-1</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99">
         <v>4</v>
       </c>
     </row>
@@ -5028,7 +5035,7 @@
       <c r="H100">
         <v>-1</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100">
         <v>8</v>
       </c>
     </row>
@@ -5057,7 +5064,7 @@
       <c r="H101">
         <v>-1</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101">
         <v>4</v>
       </c>
     </row>
@@ -5086,7 +5093,7 @@
       <c r="H102">
         <v>-1</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102">
         <v>3</v>
       </c>
     </row>
@@ -5115,7 +5122,7 @@
       <c r="H103">
         <v>-1</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103">
         <v>3</v>
       </c>
     </row>
@@ -5144,7 +5151,7 @@
       <c r="H104">
         <v>-1</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104">
         <v>2</v>
       </c>
     </row>
@@ -5173,7 +5180,7 @@
       <c r="H105">
         <v>-1</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105">
         <v>2</v>
       </c>
     </row>
@@ -5202,7 +5209,7 @@
       <c r="H106">
         <v>-1</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106">
         <v>1</v>
       </c>
     </row>
@@ -5231,7 +5238,7 @@
       <c r="H107">
         <v>-1</v>
       </c>
-      <c r="I107" s="7">
+      <c r="I107">
         <v>1</v>
       </c>
     </row>
@@ -5260,7 +5267,7 @@
       <c r="H108">
         <v>-1</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108">
         <v>2</v>
       </c>
     </row>
@@ -5289,7 +5296,7 @@
       <c r="H109">
         <v>-1</v>
       </c>
-      <c r="I109" s="7">
+      <c r="I109">
         <v>3</v>
       </c>
     </row>
@@ -5318,7 +5325,7 @@
       <c r="H110">
         <v>-1</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110">
         <v>1</v>
       </c>
     </row>
@@ -5347,7 +5354,7 @@
       <c r="H111">
         <v>-1</v>
       </c>
-      <c r="I111" s="7">
+      <c r="I111">
         <v>1</v>
       </c>
     </row>
@@ -5376,7 +5383,7 @@
       <c r="H112">
         <v>-1</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112">
         <v>1</v>
       </c>
     </row>
@@ -5405,7 +5412,7 @@
       <c r="H113">
         <v>-1</v>
       </c>
-      <c r="I113" s="7">
+      <c r="I113">
         <v>1</v>
       </c>
     </row>
@@ -5434,7 +5441,7 @@
       <c r="H114">
         <v>-1</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I114">
         <v>1</v>
       </c>
     </row>
@@ -5463,7 +5470,7 @@
       <c r="H115">
         <v>-1</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115">
         <v>1</v>
       </c>
     </row>
@@ -5492,7 +5499,7 @@
       <c r="H116">
         <v>-1</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I116">
         <v>1</v>
       </c>
     </row>
@@ -5521,7 +5528,7 @@
       <c r="H117">
         <v>-1</v>
       </c>
-      <c r="I117" s="7">
+      <c r="I117">
         <v>1</v>
       </c>
     </row>
@@ -5550,7 +5557,7 @@
       <c r="H118">
         <v>-1</v>
       </c>
-      <c r="I118" s="7">
+      <c r="I118">
         <v>8</v>
       </c>
     </row>
@@ -5579,7 +5586,7 @@
       <c r="H119">
         <v>-1</v>
       </c>
-      <c r="I119" s="7">
+      <c r="I119">
         <v>10</v>
       </c>
     </row>
@@ -5608,7 +5615,7 @@
       <c r="H120">
         <v>-1</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I120">
         <v>2</v>
       </c>
     </row>
@@ -5637,7 +5644,7 @@
       <c r="H121">
         <v>-1</v>
       </c>
-      <c r="I121" s="7">
+      <c r="I121">
         <v>3</v>
       </c>
     </row>
@@ -5666,7 +5673,7 @@
       <c r="H122">
         <v>-1</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I122">
         <v>2</v>
       </c>
     </row>
@@ -5695,7 +5702,7 @@
       <c r="H123">
         <v>-1</v>
       </c>
-      <c r="I123" s="7">
+      <c r="I123">
         <v>2</v>
       </c>
     </row>
@@ -5724,7 +5731,7 @@
       <c r="H124">
         <v>-1</v>
       </c>
-      <c r="I124" s="7">
+      <c r="I124">
         <v>2</v>
       </c>
     </row>
@@ -5753,7 +5760,7 @@
       <c r="H125">
         <v>-1</v>
       </c>
-      <c r="I125" s="7">
+      <c r="I125">
         <v>3</v>
       </c>
     </row>
@@ -5782,7 +5789,7 @@
       <c r="H126">
         <v>-1</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126">
         <v>4</v>
       </c>
     </row>
@@ -5811,7 +5818,7 @@
       <c r="H127">
         <v>-1</v>
       </c>
-      <c r="I127" s="7">
+      <c r="I127">
         <v>3</v>
       </c>
     </row>
@@ -5840,7 +5847,7 @@
       <c r="H128">
         <v>-1</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128">
         <v>3</v>
       </c>
     </row>
@@ -5869,7 +5876,7 @@
       <c r="H129">
         <v>-1</v>
       </c>
-      <c r="I129" s="7">
+      <c r="I129">
         <v>3</v>
       </c>
     </row>
@@ -5898,7 +5905,7 @@
       <c r="H130">
         <v>-1</v>
       </c>
-      <c r="I130" s="7">
+      <c r="I130">
         <v>3</v>
       </c>
     </row>
@@ -5927,7 +5934,7 @@
       <c r="H131">
         <v>-1</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I131">
         <v>2</v>
       </c>
     </row>
@@ -5956,7 +5963,7 @@
       <c r="H132">
         <v>-1</v>
       </c>
-      <c r="I132" s="7">
+      <c r="I132">
         <v>2</v>
       </c>
     </row>
@@ -5985,7 +5992,7 @@
       <c r="H133">
         <v>-1</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I133">
         <v>3</v>
       </c>
     </row>
@@ -6014,7 +6021,7 @@
       <c r="H134">
         <v>-1</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134">
         <v>2</v>
       </c>
     </row>
@@ -6043,7 +6050,7 @@
       <c r="H135">
         <v>-1</v>
       </c>
-      <c r="I135" s="7">
+      <c r="I135">
         <v>3</v>
       </c>
     </row>
@@ -6072,7 +6079,7 @@
       <c r="H136">
         <v>-1</v>
       </c>
-      <c r="I136" s="7">
+      <c r="I136">
         <v>1</v>
       </c>
     </row>
@@ -6101,7 +6108,7 @@
       <c r="H137">
         <v>-1</v>
       </c>
-      <c r="I137" s="7">
+      <c r="I137">
         <v>9</v>
       </c>
     </row>
@@ -6130,7 +6137,7 @@
       <c r="H138">
         <v>-1</v>
       </c>
-      <c r="I138" s="7">
+      <c r="I138">
         <v>9</v>
       </c>
     </row>
@@ -6159,7 +6166,7 @@
       <c r="H139">
         <v>-1</v>
       </c>
-      <c r="I139" s="7">
+      <c r="I139">
         <v>9</v>
       </c>
     </row>
@@ -6188,7 +6195,7 @@
       <c r="H140">
         <v>-1</v>
       </c>
-      <c r="I140" s="7">
+      <c r="I140">
         <v>9</v>
       </c>
     </row>
@@ -6217,7 +6224,7 @@
       <c r="H141">
         <v>-1</v>
       </c>
-      <c r="I141" s="7">
+      <c r="I141">
         <v>9</v>
       </c>
     </row>
@@ -6246,7 +6253,7 @@
       <c r="H142">
         <v>-1</v>
       </c>
-      <c r="I142" s="7">
+      <c r="I142">
         <v>9</v>
       </c>
     </row>
@@ -6275,7 +6282,7 @@
       <c r="H143">
         <v>-1</v>
       </c>
-      <c r="I143" s="7">
+      <c r="I143">
         <v>9</v>
       </c>
     </row>
@@ -6304,7 +6311,7 @@
       <c r="H144">
         <v>-1</v>
       </c>
-      <c r="I144" s="7">
+      <c r="I144">
         <v>9</v>
       </c>
     </row>
@@ -6333,7 +6340,7 @@
       <c r="H145">
         <v>-1</v>
       </c>
-      <c r="I145" s="7">
+      <c r="I145">
         <v>2</v>
       </c>
     </row>
@@ -6362,7 +6369,7 @@
       <c r="H146">
         <v>-1</v>
       </c>
-      <c r="I146" s="7">
+      <c r="I146">
         <v>10</v>
       </c>
     </row>
@@ -6391,7 +6398,7 @@
       <c r="H147">
         <v>-1</v>
       </c>
-      <c r="I147" s="7">
+      <c r="I147">
         <v>10</v>
       </c>
     </row>
@@ -6420,7 +6427,7 @@
       <c r="H148">
         <v>-1</v>
       </c>
-      <c r="I148" s="7">
+      <c r="I148">
         <v>10</v>
       </c>
     </row>
@@ -6449,7 +6456,7 @@
       <c r="H149">
         <v>-1</v>
       </c>
-      <c r="I149" s="7">
+      <c r="I149">
         <v>10</v>
       </c>
     </row>
@@ -6478,7 +6485,7 @@
       <c r="H150">
         <v>-1</v>
       </c>
-      <c r="I150" s="7">
+      <c r="I150">
         <v>10</v>
       </c>
     </row>
@@ -6507,7 +6514,7 @@
       <c r="H151">
         <v>-1</v>
       </c>
-      <c r="I151" s="7">
+      <c r="I151">
         <v>10</v>
       </c>
     </row>
@@ -6536,7 +6543,7 @@
       <c r="H152">
         <v>-1</v>
       </c>
-      <c r="I152" s="7">
+      <c r="I152">
         <v>10</v>
       </c>
     </row>
@@ -6565,7 +6572,7 @@
       <c r="H153">
         <v>-1</v>
       </c>
-      <c r="I153" s="7">
+      <c r="I153">
         <v>10</v>
       </c>
     </row>
@@ -6594,7 +6601,7 @@
       <c r="H154">
         <v>-1</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I154">
         <v>10</v>
       </c>
     </row>
@@ -6623,7 +6630,7 @@
       <c r="H155">
         <v>-1</v>
       </c>
-      <c r="I155" s="7">
+      <c r="I155">
         <v>10</v>
       </c>
     </row>
@@ -6652,7 +6659,7 @@
       <c r="H156">
         <v>-1</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I156">
         <v>8</v>
       </c>
     </row>
@@ -6681,7 +6688,7 @@
       <c r="H157">
         <v>-1</v>
       </c>
-      <c r="I157" s="7">
+      <c r="I157">
         <v>2</v>
       </c>
     </row>
@@ -6710,7 +6717,7 @@
       <c r="H158">
         <v>-1</v>
       </c>
-      <c r="I158" s="7">
+      <c r="I158">
         <v>7</v>
       </c>
     </row>
@@ -6739,7 +6746,7 @@
       <c r="H159">
         <v>-1</v>
       </c>
-      <c r="I159" s="7">
+      <c r="I159">
         <v>7</v>
       </c>
     </row>
@@ -6768,7 +6775,7 @@
       <c r="H160">
         <v>-1</v>
       </c>
-      <c r="I160" s="7">
+      <c r="I160">
         <v>7</v>
       </c>
     </row>
@@ -6797,7 +6804,7 @@
       <c r="H161">
         <v>-1</v>
       </c>
-      <c r="I161" s="7">
+      <c r="I161">
         <v>7</v>
       </c>
     </row>
@@ -6826,7 +6833,7 @@
       <c r="H162">
         <v>-1</v>
       </c>
-      <c r="I162" s="7">
+      <c r="I162">
         <v>7</v>
       </c>
     </row>
@@ -6855,7 +6862,7 @@
       <c r="H163">
         <v>-1</v>
       </c>
-      <c r="I163" s="7">
+      <c r="I163">
         <v>7</v>
       </c>
     </row>
@@ -6884,7 +6891,7 @@
       <c r="H164">
         <v>-1</v>
       </c>
-      <c r="I164" s="8">
+      <c r="I164" s="6">
         <v>9</v>
       </c>
     </row>
@@ -6913,7 +6920,7 @@
       <c r="H165">
         <v>-1</v>
       </c>
-      <c r="I165" s="7">
+      <c r="I165">
         <v>7</v>
       </c>
     </row>
@@ -6942,7 +6949,7 @@
       <c r="H166">
         <v>-1</v>
       </c>
-      <c r="I166" s="7">
+      <c r="I166">
         <v>7</v>
       </c>
     </row>
@@ -6971,7 +6978,7 @@
       <c r="H167">
         <v>-1</v>
       </c>
-      <c r="I167" s="7">
+      <c r="I167">
         <v>7</v>
       </c>
     </row>
@@ -7000,7 +7007,7 @@
       <c r="H168">
         <v>-1</v>
       </c>
-      <c r="I168" s="7">
+      <c r="I168">
         <v>8</v>
       </c>
     </row>
@@ -7029,7 +7036,7 @@
       <c r="H169">
         <v>-1</v>
       </c>
-      <c r="I169" s="7">
+      <c r="I169">
         <v>8</v>
       </c>
     </row>
@@ -7058,7 +7065,7 @@
       <c r="H170">
         <v>-1</v>
       </c>
-      <c r="I170" s="7">
+      <c r="I170">
         <v>8</v>
       </c>
     </row>
@@ -7087,7 +7094,7 @@
       <c r="H171">
         <v>-1</v>
       </c>
-      <c r="I171" s="8">
+      <c r="I171" s="6">
         <v>9</v>
       </c>
     </row>
@@ -7116,7 +7123,7 @@
       <c r="H172">
         <v>-1</v>
       </c>
-      <c r="I172" s="7">
+      <c r="I172">
         <v>8</v>
       </c>
     </row>
@@ -7145,7 +7152,7 @@
       <c r="H173">
         <v>-1</v>
       </c>
-      <c r="I173" s="7">
+      <c r="I173">
         <v>8</v>
       </c>
     </row>
@@ -7174,7 +7181,7 @@
       <c r="H174">
         <v>-1</v>
       </c>
-      <c r="I174" s="7">
+      <c r="I174">
         <v>8</v>
       </c>
     </row>
@@ -7203,7 +7210,7 @@
       <c r="H175">
         <v>-1</v>
       </c>
-      <c r="I175" s="7">
+      <c r="I175">
         <v>12</v>
       </c>
     </row>
@@ -7232,7 +7239,7 @@
       <c r="H176">
         <v>-1</v>
       </c>
-      <c r="I176" s="7">
+      <c r="I176">
         <v>12</v>
       </c>
     </row>
@@ -7261,7 +7268,7 @@
       <c r="H177">
         <v>-1</v>
       </c>
-      <c r="I177" s="7">
+      <c r="I177">
         <v>12</v>
       </c>
     </row>
@@ -7290,7 +7297,7 @@
       <c r="H178">
         <v>-1</v>
       </c>
-      <c r="I178" s="7">
+      <c r="I178">
         <v>12</v>
       </c>
     </row>
@@ -7319,7 +7326,7 @@
       <c r="H179">
         <v>-1</v>
       </c>
-      <c r="I179" s="7">
+      <c r="I179">
         <v>12</v>
       </c>
     </row>
@@ -7348,7 +7355,7 @@
       <c r="H180">
         <v>-1</v>
       </c>
-      <c r="I180" s="7">
+      <c r="I180">
         <v>12</v>
       </c>
     </row>
@@ -7377,7 +7384,7 @@
       <c r="H181">
         <v>-1</v>
       </c>
-      <c r="I181" s="7">
+      <c r="I181">
         <v>12</v>
       </c>
     </row>
@@ -7406,7 +7413,7 @@
       <c r="H182">
         <v>-1</v>
       </c>
-      <c r="I182" s="7">
+      <c r="I182">
         <v>12</v>
       </c>
     </row>
@@ -7435,7 +7442,7 @@
       <c r="H183">
         <v>-1</v>
       </c>
-      <c r="I183" s="7">
+      <c r="I183">
         <v>12</v>
       </c>
     </row>
@@ -7464,7 +7471,7 @@
       <c r="H184">
         <v>-1</v>
       </c>
-      <c r="I184" s="7">
+      <c r="I184">
         <v>12</v>
       </c>
     </row>
@@ -7493,7 +7500,7 @@
       <c r="H185">
         <v>-1</v>
       </c>
-      <c r="I185" s="7">
+      <c r="I185">
         <v>12</v>
       </c>
     </row>
@@ -7522,7 +7529,7 @@
       <c r="H186">
         <v>-1</v>
       </c>
-      <c r="I186" s="7">
+      <c r="I186">
         <v>12</v>
       </c>
     </row>
@@ -7551,7 +7558,7 @@
       <c r="H187">
         <v>-1</v>
       </c>
-      <c r="I187" s="7">
+      <c r="I187">
         <v>12</v>
       </c>
     </row>
@@ -7580,7 +7587,7 @@
       <c r="H188">
         <v>-1</v>
       </c>
-      <c r="I188" s="7">
+      <c r="I188">
         <v>13</v>
       </c>
     </row>
@@ -7609,7 +7616,7 @@
       <c r="H189">
         <v>-1</v>
       </c>
-      <c r="I189" s="7">
+      <c r="I189">
         <v>13</v>
       </c>
     </row>
@@ -7638,7 +7645,7 @@
       <c r="H190">
         <v>-1</v>
       </c>
-      <c r="I190" s="7">
+      <c r="I190">
         <v>13</v>
       </c>
     </row>
@@ -7667,7 +7674,7 @@
       <c r="H191">
         <v>-1</v>
       </c>
-      <c r="I191" s="7">
+      <c r="I191">
         <v>13</v>
       </c>
     </row>
@@ -7696,7 +7703,7 @@
       <c r="H192">
         <v>-1</v>
       </c>
-      <c r="I192" s="7">
+      <c r="I192">
         <v>13</v>
       </c>
     </row>
@@ -7725,7 +7732,7 @@
       <c r="H193">
         <v>-1</v>
       </c>
-      <c r="I193" s="7">
+      <c r="I193">
         <v>13</v>
       </c>
     </row>
@@ -7754,7 +7761,7 @@
       <c r="H194">
         <v>-1</v>
       </c>
-      <c r="I194" s="7">
+      <c r="I194">
         <v>13</v>
       </c>
     </row>
@@ -7783,7 +7790,7 @@
       <c r="H195">
         <v>-1</v>
       </c>
-      <c r="I195" s="7">
+      <c r="I195">
         <v>13</v>
       </c>
     </row>
@@ -7812,7 +7819,7 @@
       <c r="H196">
         <v>-1</v>
       </c>
-      <c r="I196" s="7">
+      <c r="I196">
         <v>13</v>
       </c>
     </row>
@@ -7841,7 +7848,7 @@
       <c r="H197">
         <v>-1</v>
       </c>
-      <c r="I197" s="7">
+      <c r="I197">
         <v>13</v>
       </c>
     </row>
@@ -7870,7 +7877,7 @@
       <c r="H198">
         <v>-1</v>
       </c>
-      <c r="I198" s="7">
+      <c r="I198">
         <v>13</v>
       </c>
     </row>
@@ -7899,7 +7906,7 @@
       <c r="H199">
         <v>-1</v>
       </c>
-      <c r="I199" s="7">
+      <c r="I199">
         <v>13</v>
       </c>
     </row>
@@ -7928,7 +7935,7 @@
       <c r="H200">
         <v>-1</v>
       </c>
-      <c r="I200" s="7">
+      <c r="I200">
         <v>13</v>
       </c>
     </row>
@@ -7957,7 +7964,7 @@
       <c r="H201">
         <v>-1</v>
       </c>
-      <c r="I201" s="7">
+      <c r="I201">
         <v>13</v>
       </c>
     </row>
@@ -7986,7 +7993,7 @@
       <c r="H202">
         <v>-1</v>
       </c>
-      <c r="I202" s="7">
+      <c r="I202">
         <v>13</v>
       </c>
     </row>
@@ -8015,7 +8022,7 @@
       <c r="H203">
         <v>-1</v>
       </c>
-      <c r="I203" s="7">
+      <c r="I203">
         <v>11</v>
       </c>
     </row>
@@ -8044,7 +8051,7 @@
       <c r="H204">
         <v>-1</v>
       </c>
-      <c r="I204" s="7">
+      <c r="I204">
         <v>11</v>
       </c>
     </row>
@@ -8073,7 +8080,7 @@
       <c r="H205">
         <v>-1</v>
       </c>
-      <c r="I205" s="7">
+      <c r="I205">
         <v>11</v>
       </c>
     </row>
@@ -8102,7 +8109,7 @@
       <c r="H206" s="3">
         <v>-1</v>
       </c>
-      <c r="I206" s="7">
+      <c r="I206">
         <v>11</v>
       </c>
     </row>
@@ -8131,7 +8138,7 @@
       <c r="H207">
         <v>-1</v>
       </c>
-      <c r="I207" s="7">
+      <c r="I207">
         <v>11</v>
       </c>
     </row>
@@ -8160,7 +8167,7 @@
       <c r="H208">
         <v>-1</v>
       </c>
-      <c r="I208" s="7">
+      <c r="I208">
         <v>11</v>
       </c>
     </row>
@@ -8189,7 +8196,7 @@
       <c r="H209">
         <v>-1</v>
       </c>
-      <c r="I209" s="7">
+      <c r="I209">
         <v>11</v>
       </c>
     </row>
@@ -8218,7 +8225,7 @@
       <c r="H210">
         <v>-1</v>
       </c>
-      <c r="I210" s="7">
+      <c r="I210">
         <v>11</v>
       </c>
     </row>
@@ -8247,7 +8254,7 @@
       <c r="H211">
         <v>-1</v>
       </c>
-      <c r="I211" s="7">
+      <c r="I211">
         <v>11</v>
       </c>
     </row>
@@ -8276,7 +8283,7 @@
       <c r="H212">
         <v>-1</v>
       </c>
-      <c r="I212" s="7">
+      <c r="I212">
         <v>11</v>
       </c>
     </row>
@@ -8294,7 +8301,7 @@
       <c r="H213">
         <v>3</v>
       </c>
-      <c r="I213" s="7">
+      <c r="I213">
         <v>15</v>
       </c>
     </row>
@@ -8312,7 +8319,7 @@
       <c r="H214">
         <v>2</v>
       </c>
-      <c r="I214" s="7">
+      <c r="I214">
         <v>15</v>
       </c>
     </row>
@@ -8330,7 +8337,7 @@
       <c r="H215">
         <v>2</v>
       </c>
-      <c r="I215" s="7">
+      <c r="I215">
         <v>15</v>
       </c>
     </row>
@@ -8348,7 +8355,7 @@
       <c r="H216">
         <v>2</v>
       </c>
-      <c r="I216" s="7">
+      <c r="I216">
         <v>15</v>
       </c>
     </row>
@@ -8366,7 +8373,7 @@
       <c r="H217">
         <v>3</v>
       </c>
-      <c r="I217" s="7">
+      <c r="I217">
         <v>15</v>
       </c>
     </row>
@@ -8384,7 +8391,7 @@
       <c r="H218">
         <v>3</v>
       </c>
-      <c r="I218" s="7">
+      <c r="I218">
         <v>15</v>
       </c>
     </row>
@@ -8402,7 +8409,7 @@
       <c r="H219">
         <v>2</v>
       </c>
-      <c r="I219" s="7">
+      <c r="I219">
         <v>15</v>
       </c>
     </row>
@@ -8420,7 +8427,7 @@
       <c r="H220">
         <v>3</v>
       </c>
-      <c r="I220" s="7">
+      <c r="I220">
         <v>15</v>
       </c>
     </row>
@@ -8438,7 +8445,7 @@
       <c r="H221">
         <v>1</v>
       </c>
-      <c r="I221" s="7">
+      <c r="I221">
         <v>15</v>
       </c>
     </row>
@@ -8456,7 +8463,7 @@
       <c r="H222">
         <v>3</v>
       </c>
-      <c r="I222" s="7">
+      <c r="I222">
         <v>15</v>
       </c>
     </row>
@@ -8474,7 +8481,7 @@
       <c r="H223">
         <v>1</v>
       </c>
-      <c r="I223" s="7">
+      <c r="I223">
         <v>15</v>
       </c>
     </row>
@@ -8492,7 +8499,7 @@
       <c r="H224">
         <v>3</v>
       </c>
-      <c r="I224" s="7">
+      <c r="I224">
         <v>15</v>
       </c>
     </row>
@@ -8510,7 +8517,7 @@
       <c r="H225">
         <v>2</v>
       </c>
-      <c r="I225" s="7">
+      <c r="I225">
         <v>15</v>
       </c>
     </row>
@@ -8528,7 +8535,7 @@
       <c r="H226">
         <v>1</v>
       </c>
-      <c r="I226" s="7">
+      <c r="I226">
         <v>15</v>
       </c>
     </row>
@@ -8546,7 +8553,7 @@
       <c r="H227">
         <v>2</v>
       </c>
-      <c r="I227" s="7">
+      <c r="I227">
         <v>15</v>
       </c>
     </row>
@@ -8564,7 +8571,7 @@
       <c r="H228">
         <v>2</v>
       </c>
-      <c r="I228" s="7">
+      <c r="I228">
         <v>15</v>
       </c>
     </row>
@@ -8582,7 +8589,7 @@
       <c r="H229">
         <v>2</v>
       </c>
-      <c r="I229" s="7">
+      <c r="I229">
         <v>15</v>
       </c>
     </row>
@@ -8600,7 +8607,7 @@
       <c r="H230">
         <v>2</v>
       </c>
-      <c r="I230" s="7">
+      <c r="I230">
         <v>15</v>
       </c>
     </row>
@@ -8618,7 +8625,7 @@
       <c r="H231">
         <v>3</v>
       </c>
-      <c r="I231" s="7">
+      <c r="I231">
         <v>15</v>
       </c>
     </row>
@@ -8636,7 +8643,7 @@
       <c r="H232">
         <v>1</v>
       </c>
-      <c r="I232" s="7">
+      <c r="I232">
         <v>15</v>
       </c>
     </row>
@@ -8654,7 +8661,7 @@
       <c r="H233">
         <v>2</v>
       </c>
-      <c r="I233" s="7">
+      <c r="I233">
         <v>15</v>
       </c>
     </row>
@@ -8672,7 +8679,7 @@
       <c r="H234">
         <v>2</v>
       </c>
-      <c r="I234" s="7">
+      <c r="I234">
         <v>15</v>
       </c>
     </row>
@@ -8690,7 +8697,7 @@
       <c r="H235">
         <v>1</v>
       </c>
-      <c r="I235" s="7">
+      <c r="I235">
         <v>15</v>
       </c>
     </row>
@@ -8708,7 +8715,7 @@
       <c r="H236">
         <v>1</v>
       </c>
-      <c r="I236" s="7">
+      <c r="I236">
         <v>15</v>
       </c>
     </row>
@@ -8726,7 +8733,7 @@
       <c r="H237">
         <v>1</v>
       </c>
-      <c r="I237" s="7">
+      <c r="I237">
         <v>15</v>
       </c>
     </row>
@@ -8744,7 +8751,7 @@
       <c r="H238">
         <v>1</v>
       </c>
-      <c r="I238" s="7">
+      <c r="I238">
         <v>15</v>
       </c>
     </row>
@@ -8762,7 +8769,7 @@
       <c r="H239">
         <v>1</v>
       </c>
-      <c r="I239" s="7">
+      <c r="I239">
         <v>15</v>
       </c>
     </row>
@@ -8780,7 +8787,7 @@
       <c r="H240">
         <v>3</v>
       </c>
-      <c r="I240" s="7">
+      <c r="I240">
         <v>15</v>
       </c>
     </row>
@@ -8798,7 +8805,7 @@
       <c r="H241">
         <v>1</v>
       </c>
-      <c r="I241" s="7">
+      <c r="I241">
         <v>15</v>
       </c>
     </row>
@@ -8816,7 +8823,7 @@
       <c r="H242">
         <v>3</v>
       </c>
-      <c r="I242" s="7">
+      <c r="I242">
         <v>15</v>
       </c>
     </row>
@@ -8834,7 +8841,7 @@
       <c r="H243">
         <v>2</v>
       </c>
-      <c r="I243" s="7">
+      <c r="I243">
         <v>15</v>
       </c>
     </row>
@@ -8852,7 +8859,7 @@
       <c r="H244">
         <v>2</v>
       </c>
-      <c r="I244" s="7">
+      <c r="I244">
         <v>15</v>
       </c>
     </row>
@@ -8870,7 +8877,7 @@
       <c r="H245">
         <v>1</v>
       </c>
-      <c r="I245" s="7">
+      <c r="I245">
         <v>15</v>
       </c>
     </row>
@@ -8888,7 +8895,7 @@
       <c r="H246">
         <v>1</v>
       </c>
-      <c r="I246" s="7">
+      <c r="I246">
         <v>15</v>
       </c>
     </row>
@@ -8906,7 +8913,7 @@
       <c r="H247">
         <v>2</v>
       </c>
-      <c r="I247" s="7">
+      <c r="I247">
         <v>15</v>
       </c>
     </row>
@@ -8924,7 +8931,7 @@
       <c r="H248">
         <v>3</v>
       </c>
-      <c r="I248" s="7">
+      <c r="I248">
         <v>15</v>
       </c>
     </row>
@@ -8942,7 +8949,7 @@
       <c r="H249">
         <v>1</v>
       </c>
-      <c r="I249" s="7">
+      <c r="I249">
         <v>15</v>
       </c>
     </row>
@@ -8960,7 +8967,7 @@
       <c r="H250">
         <v>1</v>
       </c>
-      <c r="I250" s="7">
+      <c r="I250">
         <v>15</v>
       </c>
     </row>
@@ -8978,7 +8985,7 @@
       <c r="H251">
         <v>2</v>
       </c>
-      <c r="I251" s="7">
+      <c r="I251">
         <v>15</v>
       </c>
     </row>
@@ -8996,7 +9003,7 @@
       <c r="H252">
         <v>3</v>
       </c>
-      <c r="I252" s="7">
+      <c r="I252">
         <v>15</v>
       </c>
     </row>
@@ -9014,7 +9021,7 @@
       <c r="H253">
         <v>2</v>
       </c>
-      <c r="I253" s="7">
+      <c r="I253">
         <v>15</v>
       </c>
     </row>
@@ -9032,7 +9039,7 @@
       <c r="H254">
         <v>2</v>
       </c>
-      <c r="I254" s="7">
+      <c r="I254">
         <v>15</v>
       </c>
     </row>
@@ -9050,7 +9057,7 @@
       <c r="H255">
         <v>3</v>
       </c>
-      <c r="I255" s="7">
+      <c r="I255">
         <v>15</v>
       </c>
     </row>
@@ -9068,7 +9075,7 @@
       <c r="H256">
         <v>3</v>
       </c>
-      <c r="I256" s="7">
+      <c r="I256">
         <v>15</v>
       </c>
     </row>
@@ -9086,7 +9093,7 @@
       <c r="H257">
         <v>3</v>
       </c>
-      <c r="I257" s="7">
+      <c r="I257">
         <v>15</v>
       </c>
     </row>
@@ -9104,7 +9111,7 @@
       <c r="H258">
         <v>2</v>
       </c>
-      <c r="I258" s="7">
+      <c r="I258">
         <v>15</v>
       </c>
     </row>
@@ -9122,7 +9129,7 @@
       <c r="H259">
         <v>2</v>
       </c>
-      <c r="I259" s="7">
+      <c r="I259">
         <v>15</v>
       </c>
     </row>
@@ -9140,7 +9147,7 @@
       <c r="H260">
         <v>1</v>
       </c>
-      <c r="I260" s="7">
+      <c r="I260">
         <v>15</v>
       </c>
     </row>
@@ -9158,7 +9165,7 @@
       <c r="H261">
         <v>1</v>
       </c>
-      <c r="I261" s="7">
+      <c r="I261">
         <v>15</v>
       </c>
     </row>
@@ -9176,7 +9183,7 @@
       <c r="H262">
         <v>1</v>
       </c>
-      <c r="I262" s="7">
+      <c r="I262">
         <v>15</v>
       </c>
     </row>
@@ -9194,7 +9201,7 @@
       <c r="H263">
         <v>1</v>
       </c>
-      <c r="I263" s="7">
+      <c r="I263">
         <v>15</v>
       </c>
     </row>
@@ -9212,7 +9219,7 @@
       <c r="H264">
         <v>2</v>
       </c>
-      <c r="I264" s="7">
+      <c r="I264">
         <v>15</v>
       </c>
     </row>
@@ -9230,7 +9237,7 @@
       <c r="H265">
         <v>2</v>
       </c>
-      <c r="I265" s="7">
+      <c r="I265">
         <v>15</v>
       </c>
     </row>
@@ -9248,7 +9255,7 @@
       <c r="H266">
         <v>3</v>
       </c>
-      <c r="I266" s="7">
+      <c r="I266">
         <v>15</v>
       </c>
     </row>
@@ -9266,7 +9273,7 @@
       <c r="H267">
         <v>2</v>
       </c>
-      <c r="I267" s="7">
+      <c r="I267">
         <v>15</v>
       </c>
     </row>
@@ -9284,7 +9291,7 @@
       <c r="H268">
         <v>3</v>
       </c>
-      <c r="I268" s="7">
+      <c r="I268">
         <v>15</v>
       </c>
     </row>
@@ -9302,7 +9309,7 @@
       <c r="H269">
         <v>3</v>
       </c>
-      <c r="I269" s="7">
+      <c r="I269">
         <v>15</v>
       </c>
     </row>
@@ -9320,7 +9327,7 @@
       <c r="H270">
         <v>1</v>
       </c>
-      <c r="I270" s="7">
+      <c r="I270">
         <v>15</v>
       </c>
     </row>
@@ -9338,7 +9345,7 @@
       <c r="H271">
         <v>2</v>
       </c>
-      <c r="I271" s="7">
+      <c r="I271">
         <v>15</v>
       </c>
     </row>
@@ -9356,7 +9363,7 @@
       <c r="H272">
         <v>1</v>
       </c>
-      <c r="I272" s="7">
+      <c r="I272">
         <v>15</v>
       </c>
     </row>
@@ -9373,7 +9380,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9476,11 +9483,11 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F7" si="1">+FIND(" ",B4,FIND(" ",B4)+1)</f>
+        <f t="shared" ref="F4:F8" si="1">+FIND(" ",B4,FIND(" ",B4)+1)</f>
         <v>21</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G3:G4" si="2">+PROPER(CONCATENATE(RIGHT(B4,LEN(B4)-F4)," ",LEFT(B4,F4)))</f>
+        <f t="shared" ref="G4" si="2">+PROPER(CONCATENATE(RIGHT(B4,LEN(B4)-F4)," ",LEFT(B4,F4)))</f>
         <v xml:space="preserve">Walter Humberto Orozco Tupacyupanqui </v>
       </c>
     </row>
@@ -9563,7 +9570,23 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="B8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="8">
+        <v>123456</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Alumnos Estudiante Prueba </v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
@@ -9577,6 +9600,7 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{5DAD12F6-86D3-4130-966B-4089F083A101}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{27690F3B-88A3-4D84-AAB5-504C0D1CBC97}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{409730B7-A2AA-4164-8A1B-B77152D342AD}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{49ECBFDC-67AD-4C9E-B0CE-772347085658}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/BD_preguntas1.xlsx
+++ b/public/BD_preguntas1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\AAA-Vinculacion\AppTDAH\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B560896-371E-48DE-B44F-EAAB627905E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9DB755-7A78-4949-BD71-7707A5FCF42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="558">
   <si>
     <t>Enunciado</t>
   </si>
@@ -1759,6 +1759,9 @@
   </si>
   <si>
     <t>Estudiante Prueba alumnos</t>
+  </si>
+  <si>
+    <t>Edad</t>
   </si>
 </sst>
 </file>
@@ -9377,10 +9380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9388,12 +9391,12 @@
     <col min="1" max="1" width="3.5546875" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9407,16 +9410,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9429,19 +9435,22 @@
       <c r="D2" t="s">
         <v>462</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>+FIND(" ",B2,FIND(" ",B2)+1)</f>
         <v>14</v>
       </c>
-      <c r="G2" t="str">
-        <f>+PROPER(CONCATENATE(RIGHT(B2,LEN(B2)-F2)," ",LEFT(B2,F2)))</f>
+      <c r="H2" t="str">
+        <f>+PROPER(CONCATENATE(RIGHT(B2,LEN(B2)-G2)," ",LEFT(B2,G2)))</f>
         <v xml:space="preserve">Juan Pablo Bermeo Moyano </v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9454,19 +9463,22 @@
       <c r="D3" t="s">
         <v>462</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <f>+FIND(" ",B3,FIND(" ",B3)+1)</f>
         <v>14</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3" si="0">+PROPER(CONCATENATE(RIGHT(B3,LEN(B3)-F3)," ",LEFT(B3,F3)))</f>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3" si="0">+PROPER(CONCATENATE(RIGHT(B3,LEN(B3)-G3)," ",LEFT(B3,G3)))</f>
         <v xml:space="preserve">Juan Pablo Bermeo Moyano </v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9479,19 +9491,22 @@
       <c r="D4">
         <v>123456</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F8" si="1">+FIND(" ",B4,FIND(" ",B4)+1)</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="1">+FIND(" ",B4,FIND(" ",B4)+1)</f>
         <v>21</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4" si="2">+PROPER(CONCATENATE(RIGHT(B4,LEN(B4)-F4)," ",LEFT(B4,F4)))</f>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4" si="2">+PROPER(CONCATENATE(RIGHT(B4,LEN(B4)-G4)," ",LEFT(B4,G4)))</f>
         <v xml:space="preserve">Walter Humberto Orozco Tupacyupanqui </v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9504,19 +9519,22 @@
       <c r="D5">
         <v>12345678</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G8" si="3">+PROPER(CONCATENATE(RIGHT(B5,LEN(B5)-F5)," ",LEFT(B5,F5)))</f>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H8" si="3">+PROPER(CONCATENATE(RIGHT(B5,LEN(B5)-G5)," ",LEFT(B5,G5)))</f>
         <v xml:space="preserve">Susana Castro V </v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9527,21 +9545,24 @@
         <v>552</v>
       </c>
       <c r="D6">
-        <v>123456</v>
-      </c>
-      <c r="E6" t="s">
+        <v>12345678</v>
+      </c>
+      <c r="E6">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Juan Diego Jara Saltos </v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9554,19 +9575,22 @@
       <c r="D7">
         <v>123456</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Angel Fernando Soto S. </v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9579,20 +9603,23 @@
       <c r="D8" s="8">
         <v>123456</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="8">
+        <v>9</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Alumnos Estudiante Prueba </v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="3"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/public/BD_preguntas1.xlsx
+++ b/public/BD_preguntas1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\AAA-Vinculacion\AppTDAH\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9DB755-7A78-4949-BD71-7707A5FCF42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB37DF7-28E5-499B-896C-64EC944C2769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1164" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="558">
   <si>
     <t>Enunciado</t>
   </si>
@@ -9383,7 +9383,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9605,6 +9605,9 @@
       </c>
       <c r="E8" s="8">
         <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
